--- a/GolfData.xlsx
+++ b/GolfData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\lefties-righties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019DC7A1-41E9-4AAD-8408-710B9F96492C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5C4F46-97DA-4910-B37D-14AFE0B7BA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
+    <workbookView xWindow="-22875" yWindow="1740" windowWidth="21600" windowHeight="11295" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Zápasy" sheetId="1" r:id="rId1"/>
@@ -382,9 +382,6 @@
     <t>https://www.golfhostivar.cz/wp-content/uploads/2015/04/olomouc.jpg</t>
   </si>
   <si>
-    <t>http://golfzonatour.sk/wp-content/uploads/2013/02/Log%C3%B3-old-lake.jpg</t>
-  </si>
-  <si>
     <t>https://scontent-vie1-1.xx.fbcdn.net/v/t39.30808-6/294744283_555651426354818_9063292769574535846_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=jxeF2O9BHTQQ7kNvwEMLxFx&amp;_nc_oc=Adm63q4prWK8f_TyG6qr3h3mHLr4OsWV9uByBUj2n9Q1VnRPJWIoPKpsXxcm6V0Hvrk&amp;_nc_zt=23&amp;_nc_ht=scontent-vie1-1.xx&amp;_nc_gid=ILBiWwolf6T70k_snLqq0w&amp;oh=00_AfswjyFW4Rng_3-WVXu2eOqhOhhbgBAPkpohZ6QFw9vo0w&amp;oe=6987E5DD</t>
   </si>
   <si>
@@ -433,9 +430,6 @@
     <t>https://cdn.allsquaregolf.com/pictures/pictures/001/336/399/large/club_396_logo.jpg</t>
   </si>
   <si>
-    <t>https://www.golf4u.cz/wp-content/kuneticka-hora.png</t>
-  </si>
-  <si>
     <t>https://grkh.cz/wp-content/uploads/Golf-Course-8.webp</t>
   </si>
   <si>
@@ -452,6 +446,12 @@
   </si>
   <si>
     <t>Stav R</t>
+  </si>
+  <si>
+    <t>https://cdn.allsquaregolf.com/pictures/pictures/000/141/400/sq_me/unknown_picture.jpg</t>
+  </si>
+  <si>
+    <t>https://oldlakegolf.hu/wp-content/uploads/2024/07/oldlake_logof_k-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,6 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextové prepojenie" xfId="1" builtinId="8"/>
@@ -1153,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266B8EBE-F761-43A0-B680-B163CBB81B3A}">
   <dimension ref="A1:M328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -15421,10 +15422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A006B703-B40A-4937-BEC9-B770FF1D91D5}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15456,10 +15457,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -15473,7 +15474,7 @@
         <v>2013</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>25</v>
@@ -15494,7 +15495,7 @@
         <v>106</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -15523,7 +15524,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -15578,10 +15579,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -15607,10 +15608,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -15636,10 +15637,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -15665,10 +15666,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -15694,10 +15695,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -15723,10 +15724,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -15752,10 +15753,10 @@
         <v>3</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -15781,10 +15782,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -15810,10 +15811,10 @@
         <v>4</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -15839,11 +15840,14 @@
         <v>5</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>132</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/GolfData.xlsx
+++ b/GolfData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\lefties-righties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5C4F46-97DA-4910-B37D-14AFE0B7BA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA05196-CBFD-475B-A226-60AE53BA0F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22875" yWindow="1740" windowWidth="21600" windowHeight="11295" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Zápasy" sheetId="1" r:id="rId1"/>
     <sheet name="Turnaje" sheetId="2" r:id="rId2"/>
+    <sheet name="Hráči" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Lefties">#REF!</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="157">
   <si>
     <t>Rok</t>
   </si>
@@ -452,6 +453,69 @@
   </si>
   <si>
     <t>https://oldlakegolf.hu/wp-content/uploads/2024/07/oldlake_logof_k-2.jpg</t>
+  </si>
+  <si>
+    <t>Hráč</t>
+  </si>
+  <si>
+    <t>Portret</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/SegenJ.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Torma.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Achimsky.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Antala.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Bielik.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Just.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Machcinik.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Balaz.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Beno.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Holcik.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Krajcik.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Licko.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Polak.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Ryba.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Schin.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Sill.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Sedivy.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/SegenP.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Tarnoczy.jpg</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266B8EBE-F761-43A0-B680-B163CBB81B3A}">
   <dimension ref="A1:M328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+    <sheetView topLeftCell="A298" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -15425,7 +15489,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15886,4 +15950,472 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40885CB9-108E-4174-9C31-B677D76AB5E9}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A74">
+    <sortCondition ref="A2:A74"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B51" r:id="rId1" xr:uid="{EDC9EE67-C7AD-4B27-A6DE-D82F6218EED3}"/>
+    <hyperlink ref="B64" r:id="rId2" xr:uid="{AA291847-C527-43CA-AAE1-A30F269D4931}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{479E9D9E-DC1F-470E-AFDB-6DFA90451C30}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{9B77123F-3292-4595-A107-6AB64DD1FF07}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{99C158F8-4ECC-4700-BE88-0DCCDDB0A152}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{F3AA5783-CC5C-4945-BFBB-BEC7E6EBDEDF}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{77A6F040-9B22-4FFE-968A-40F68BB4CBDF}"/>
+    <hyperlink ref="B20" r:id="rId8" xr:uid="{7F5DE3ED-851B-4968-93F9-F251CBF46324}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{6FDFC036-0696-4B23-9903-0678374212A7}"/>
+    <hyperlink ref="B32" r:id="rId10" xr:uid="{96F535C8-8BE1-4236-8A78-33752B82C9EA}"/>
+    <hyperlink ref="B35" r:id="rId11" xr:uid="{D2F50ED2-E172-4463-A59B-3406B0CA661E}"/>
+    <hyperlink ref="B36" r:id="rId12" xr:uid="{5A1599E0-0656-4967-ADB4-536FC36CF84D}"/>
+    <hyperlink ref="B45" r:id="rId13" xr:uid="{E4F7C559-AB10-4E71-86C8-4E9A664AF8AA}"/>
+    <hyperlink ref="B49" r:id="rId14" xr:uid="{C30F3618-6AF1-4199-A532-C86A207E2EA5}"/>
+    <hyperlink ref="B53" r:id="rId15" xr:uid="{098A094B-949E-449F-85B4-E705CAB87CEF}"/>
+    <hyperlink ref="B57" r:id="rId16" xr:uid="{4881E0EB-0CB9-4AD1-81B4-D6CD8416D2C4}"/>
+    <hyperlink ref="B52" r:id="rId17" xr:uid="{D2F68AFB-ECCF-4ADC-AE93-0CDFB6969BD0}"/>
+    <hyperlink ref="B54" r:id="rId18" xr:uid="{BED7FACE-8E9B-40D7-9425-57AF1D8811E3}"/>
+    <hyperlink ref="B63" r:id="rId19" xr:uid="{52AFEEB9-E7F8-405B-B036-D057268D0547}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>